--- a/report_2.xlsx
+++ b/report_2.xlsx
@@ -38,22 +38,22 @@
     <t>Quantité</t>
   </si>
   <si>
-    <t>shopping with Rembrandt</t>
+    <t>shopping with Michelangelo</t>
   </si>
   <si>
-    <t>1947-09-18</t>
+    <t>2010-11-28</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Mediocre Granite Pants</t>
+    <t>Sleek Granite Wallet</t>
   </si>
   <si>
-    <t>Scallops</t>
+    <t>Endive</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>2.0</t>
   </si>
   <si>
     <t>4.0</t>
